--- a/任涵彬/规划/3.8高中生填报志愿助手项目预算.xlsx
+++ b/任涵彬/规划/3.8高中生填报志愿助手项目预算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32678EE3-93BE-48C9-B663-335A51E061BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FCB46D-AF87-4E86-8A09-F2F1611279A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019.5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作量估计（天）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +268,10 @@
   </si>
   <si>
     <t>高中生填报志愿助手项目预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,11 +332,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,7 +625,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,101 +636,101 @@
     <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="4"/>
@@ -739,89 +739,89 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -829,67 +829,67 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
         <v>2</v>
       </c>
     </row>
@@ -897,89 +897,89 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
         <v>3</v>
       </c>
     </row>
@@ -990,88 +990,88 @@
       <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.5</v>
       </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="2">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1080,66 +1080,66 @@
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1148,66 +1148,66 @@
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1215,207 +1215,235 @@
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="2">
-        <v>3</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>7</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>7</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2">
         <f>SUM(H7:H32)</f>
         <v>60</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="2">
         <v>7440</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>500</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="2">
         <v>500</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2">
         <v>700</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2">
         <v>1000</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>10140</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B32:C32"/>
@@ -1432,34 +1460,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
